--- a/data_analysis/week/5.xlsx
+++ b/data_analysis/week/5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27880" windowHeight="13000"/>
+    <workbookView windowWidth="24940" windowHeight="13000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <t>大区</t>
   </si>
   <si>
-    <t>管理中心</t>
+    <t>去敏</t>
   </si>
   <si>
     <t>项目编码</t>
@@ -76,13 +76,13 @@
     <t>A</t>
   </si>
   <si>
-    <t>A01东莞东部管理中心</t>
+    <t>A01东莞东部去敏</t>
   </si>
   <si>
     <t>50834610</t>
   </si>
   <si>
-    <t>东莞常平万科城</t>
+    <t>东莞常平去敏城</t>
   </si>
   <si>
     <t>2019-06-28</t>
@@ -139,13 +139,13 @@
     <t>50904014</t>
   </si>
   <si>
-    <t>东莞万科松朗花园</t>
+    <t>东莞去敏松朗花园</t>
   </si>
   <si>
     <t>50900668</t>
   </si>
   <si>
-    <t>东莞万科金域缇香花园</t>
+    <t>东莞去敏金域缇香花园</t>
   </si>
   <si>
     <t>50834617</t>
@@ -181,7 +181,7 @@
     <t>50834621</t>
   </si>
   <si>
-    <t>东莞万科湖畔花园</t>
+    <t>东莞去敏湖畔花园</t>
   </si>
   <si>
     <t>50900926</t>
@@ -208,7 +208,7 @@
     <t>Q东莞玉兰居</t>
   </si>
   <si>
-    <t>A02阵地经营体</t>
+    <t>A02去敏</t>
   </si>
   <si>
     <t>50834637</t>
@@ -274,7 +274,7 @@
     <t>50834631</t>
   </si>
   <si>
-    <t>东莞虎门万科花园</t>
+    <t>东莞虎门去敏花园</t>
   </si>
   <si>
     <t>50834640</t>
@@ -304,7 +304,7 @@
     <t>50834630</t>
   </si>
   <si>
-    <t>东莞虎门万科城</t>
+    <t>东莞虎门去敏城</t>
   </si>
   <si>
     <t>50834625</t>
@@ -358,7 +358,7 @@
     <t>50834639</t>
   </si>
   <si>
-    <t>东莞万科云广场</t>
+    <t>东莞去敏云广场</t>
   </si>
   <si>
     <t>50906341</t>
@@ -367,7 +367,7 @@
     <t>东莞翰林城市花园</t>
   </si>
   <si>
-    <t>A03阵地经营体</t>
+    <t>A03去敏</t>
   </si>
   <si>
     <t>50834644</t>
@@ -460,7 +460,7 @@
     <t>Q深圳新亚洲花园</t>
   </si>
   <si>
-    <t>A04深圳西部管理中心</t>
+    <t>A04深圳西部去敏</t>
   </si>
   <si>
     <t>50834645</t>
@@ -472,7 +472,7 @@
     <t>50908379</t>
   </si>
   <si>
-    <t>深圳万科蛇口公馆</t>
+    <t>深圳去敏蛇口公馆</t>
   </si>
   <si>
     <t>50834647</t>
@@ -496,7 +496,7 @@
     <t>50834657</t>
   </si>
   <si>
-    <t>深圳万科云城</t>
+    <t>深圳去敏云城</t>
   </si>
   <si>
     <t>50834665</t>
@@ -553,7 +553,7 @@
     <t>Q深圳浪琴屿花园</t>
   </si>
   <si>
-    <t>A05阵地经营体</t>
+    <t>A05去敏</t>
   </si>
   <si>
     <t>50834674</t>
@@ -676,7 +676,7 @@
     <t>深圳城市花园</t>
   </si>
   <si>
-    <t>A06深圳东部管理中心</t>
+    <t>A06深圳东部去敏</t>
   </si>
   <si>
     <t>50834681</t>
@@ -742,7 +742,7 @@
     <t>50834672</t>
   </si>
   <si>
-    <t>万科红物业服务中心</t>
+    <t>去敏红物业服务中心</t>
   </si>
   <si>
     <t>50834701</t>
@@ -835,7 +835,7 @@
     <t>深圳俊园</t>
   </si>
   <si>
-    <t>A07厦门城区管理中心</t>
+    <t>A07厦门城区去敏</t>
   </si>
   <si>
     <t>50834726</t>
@@ -871,7 +871,7 @@
     <t>50834725</t>
   </si>
   <si>
-    <t>厦门海沧万科城</t>
+    <t>厦门海沧去敏城</t>
   </si>
   <si>
     <t>50901105</t>
@@ -901,7 +901,7 @@
     <t>50834730</t>
   </si>
   <si>
-    <t>厦门万科广场</t>
+    <t>厦门去敏广场</t>
   </si>
   <si>
     <t>50834728</t>
@@ -934,7 +934,7 @@
     <t>K厦门育秀中心</t>
   </si>
   <si>
-    <t>A08阵地经营体</t>
+    <t>A08去敏</t>
   </si>
   <si>
     <t>50834736</t>
@@ -952,7 +952,7 @@
     <t>50834744</t>
   </si>
   <si>
-    <t>莆田万科城</t>
+    <t>莆田去敏城</t>
   </si>
   <si>
     <t>50836570</t>
@@ -964,7 +964,7 @@
     <t>50834742</t>
   </si>
   <si>
-    <t>福州万科城</t>
+    <t>福州去敏城</t>
   </si>
   <si>
     <t>50834735</t>
@@ -994,7 +994,7 @@
     <t>50905498</t>
   </si>
   <si>
-    <t>福州万科金融港中心</t>
+    <t>福州去敏金融港中心</t>
   </si>
   <si>
     <t>50906177</t>
@@ -1036,7 +1036,7 @@
     <t>50834743</t>
   </si>
   <si>
-    <t>福州万科广场</t>
+    <t>福州去敏广场</t>
   </si>
   <si>
     <t>50901860</t>
@@ -1069,7 +1069,7 @@
     <t>Q莆田正鼎小镇</t>
   </si>
   <si>
-    <t>A09泉州城区管理中心</t>
+    <t>A09泉州城区去敏</t>
   </si>
   <si>
     <t>50834747</t>
@@ -1087,7 +1087,7 @@
     <t>50834769</t>
   </si>
   <si>
-    <t>泉州万科城</t>
+    <t>泉州去敏城</t>
   </si>
   <si>
     <t>50834752</t>
@@ -1234,7 +1234,7 @@
     <t>泉州城市之光</t>
   </si>
   <si>
-    <t>A10厦漳管理中心</t>
+    <t>A10厦漳去敏</t>
   </si>
   <si>
     <t>50900839</t>
@@ -1330,7 +1330,7 @@
     <t>50834731</t>
   </si>
   <si>
-    <t>漳州万科城</t>
+    <t>漳州去敏城</t>
   </si>
   <si>
     <t>50900798</t>
@@ -1345,7 +1345,7 @@
     <t>K厦门国建东海岸</t>
   </si>
   <si>
-    <t>A11阵地经营体</t>
+    <t>A11去敏</t>
   </si>
   <si>
     <t>50834664</t>
@@ -1363,7 +1363,7 @@
     <t>50834669</t>
   </si>
   <si>
-    <t>深圳万科城</t>
+    <t>深圳去敏城</t>
   </si>
   <si>
     <t>50834667</t>
@@ -1399,13 +1399,13 @@
     <t>50834671</t>
   </si>
   <si>
-    <t>深圳万科紫悦山</t>
+    <t>深圳去敏紫悦山</t>
   </si>
   <si>
     <t>50834670</t>
   </si>
   <si>
-    <t>深圳万科麓城</t>
+    <t>深圳去敏麓城</t>
   </si>
   <si>
     <t>50908461</t>
@@ -1429,7 +1429,7 @@
     <t>B</t>
   </si>
   <si>
-    <t>B01杭州城南管理中心</t>
+    <t>B01杭州城南去敏</t>
   </si>
   <si>
     <t>50905938</t>
@@ -1447,7 +1447,7 @@
     <t>50834798</t>
   </si>
   <si>
-    <t>杭州万科公望一二三期</t>
+    <t>杭州去敏公望一二三期</t>
   </si>
   <si>
     <t>50900369</t>
@@ -1465,7 +1465,7 @@
     <t>50834797</t>
   </si>
   <si>
-    <t>杭州万科公望四期</t>
+    <t>杭州去敏公望四期</t>
   </si>
   <si>
     <t>50834788</t>
@@ -1525,7 +1525,7 @@
     <t>50904695</t>
   </si>
   <si>
-    <t>杭州万科公望五期</t>
+    <t>杭州去敏公望五期</t>
   </si>
   <si>
     <t>50834790</t>
@@ -1564,7 +1564,7 @@
     <t>杭州锦浦江岸公寓</t>
   </si>
   <si>
-    <t>B02阵地经营体</t>
+    <t>B02去敏</t>
   </si>
   <si>
     <t>50834807</t>
@@ -1747,19 +1747,19 @@
     <t>温州金溪园</t>
   </si>
   <si>
-    <t>B03阵地经营体</t>
+    <t>B03去敏</t>
   </si>
   <si>
     <t>50834829</t>
   </si>
   <si>
-    <t>南昌地铁万科时代广场</t>
+    <t>南昌地铁去敏时代广场</t>
   </si>
   <si>
     <t>50834836</t>
   </si>
   <si>
-    <t>南昌万科城</t>
+    <t>南昌去敏城</t>
   </si>
   <si>
     <t>50834833</t>
@@ -1861,7 +1861,7 @@
     <t>50834838</t>
   </si>
   <si>
-    <t>南昌万科金域小区</t>
+    <t>南昌去敏金域小区</t>
   </si>
   <si>
     <t>50907844</t>
@@ -1879,10 +1879,10 @@
     <t>50834837</t>
   </si>
   <si>
-    <t>南昌万科粹叠园</t>
-  </si>
-  <si>
-    <t>B04杭州城西管理中心</t>
+    <t>南昌去敏粹叠园</t>
+  </si>
+  <si>
+    <t>B04杭州城西去敏</t>
   </si>
   <si>
     <t>50900692</t>
@@ -2041,7 +2041,7 @@
     <t>杭州栖岚院一期</t>
   </si>
   <si>
-    <t>B05杭州城东管理中心</t>
+    <t>B05杭州城东去敏</t>
   </si>
   <si>
     <t>50834872</t>
@@ -2125,7 +2125,7 @@
     <t>50834884</t>
   </si>
   <si>
-    <t>杭州万科草庄</t>
+    <t>杭州去敏草庄</t>
   </si>
   <si>
     <t>50834885</t>
@@ -2188,7 +2188,7 @@
     <t>杭州魅力之城</t>
   </si>
   <si>
-    <t>B06宁波西南管理中心</t>
+    <t>B06宁波西南去敏</t>
   </si>
   <si>
     <t>50834974</t>
@@ -2218,7 +2218,7 @@
     <t>50834946</t>
   </si>
   <si>
-    <t>宁波万科传奇里</t>
+    <t>宁波去敏传奇里</t>
   </si>
   <si>
     <t>50834944</t>
@@ -2314,7 +2314,7 @@
     <t>50906332</t>
   </si>
   <si>
-    <t>宁波万科桂语里</t>
+    <t>宁波去敏桂语里</t>
   </si>
   <si>
     <t>50834965</t>
@@ -2356,7 +2356,7 @@
     <t>50905543</t>
   </si>
   <si>
-    <t>宁波万科广源里</t>
+    <t>宁波去敏广源里</t>
   </si>
   <si>
     <t>50834989</t>
@@ -2395,7 +2395,7 @@
     <t>Z宁波泗门嘉悦城</t>
   </si>
   <si>
-    <t>B07阵地经营体</t>
+    <t>B07去敏</t>
   </si>
   <si>
     <t>50834928</t>
@@ -2644,19 +2644,19 @@
     <t>Z宁波都市森林</t>
   </si>
   <si>
-    <t>B08宁波东北管理中心</t>
+    <t>B08宁波东北去敏</t>
   </si>
   <si>
     <t>50834925</t>
   </si>
   <si>
-    <t>宁波万科城</t>
+    <t>宁波去敏城</t>
   </si>
   <si>
     <t>50834926</t>
   </si>
   <si>
-    <t>宁波万科城东郡</t>
+    <t>宁波去敏城东郡</t>
   </si>
   <si>
     <t>50834920</t>
@@ -2746,7 +2746,7 @@
     <t>50900899</t>
   </si>
   <si>
-    <t>宁波万科都心里</t>
+    <t>宁波去敏都心里</t>
   </si>
   <si>
     <t>50906808</t>
@@ -2758,13 +2758,13 @@
     <t>50901106</t>
   </si>
   <si>
-    <t>万科城堂院</t>
+    <t>去敏城堂院</t>
   </si>
   <si>
     <t>50834972</t>
   </si>
   <si>
-    <t>宁波万科惇叙里</t>
+    <t>宁波去敏惇叙里</t>
   </si>
   <si>
     <t>50834927</t>
@@ -2776,7 +2776,7 @@
     <t>C</t>
   </si>
   <si>
-    <t>C01阵地经营体</t>
+    <t>C01去敏</t>
   </si>
   <si>
     <t>50835011</t>
@@ -2812,7 +2812,7 @@
     <t>50901628</t>
   </si>
   <si>
-    <t>沈阳万科城市之光清水房</t>
+    <t>沈阳去敏城市之光清水房</t>
   </si>
   <si>
     <t>50835000</t>
@@ -2929,7 +2929,7 @@
     <t>Q沈阳房实名苑</t>
   </si>
   <si>
-    <t>C02阵地经营体</t>
+    <t>C02去敏</t>
   </si>
   <si>
     <t>50835035</t>
@@ -2977,7 +2977,7 @@
     <t>50906019</t>
   </si>
   <si>
-    <t>沈阳万科兰峰苑</t>
+    <t>沈阳去敏兰峰苑</t>
   </si>
   <si>
     <t>50836666</t>
@@ -3046,7 +3046,7 @@
     <t>沈阳金域国际</t>
   </si>
   <si>
-    <t>C03阵地经营体</t>
+    <t>C03去敏</t>
   </si>
   <si>
     <t>50835045</t>
@@ -3064,7 +3064,7 @@
     <t>50835050</t>
   </si>
   <si>
-    <t>沈阳万科城</t>
+    <t>沈阳去敏城</t>
   </si>
   <si>
     <t>50835048</t>
@@ -3082,7 +3082,7 @@
     <t>50907154</t>
   </si>
   <si>
-    <t>沈阳万科明日之光</t>
+    <t>沈阳去敏明日之光</t>
   </si>
   <si>
     <t>50835043</t>
@@ -3130,7 +3130,7 @@
     <t>50906735</t>
   </si>
   <si>
-    <t>万科仲山花园</t>
+    <t>去敏仲山花园</t>
   </si>
   <si>
     <t>50835042</t>
@@ -3145,7 +3145,7 @@
     <t>沈阳郁金香</t>
   </si>
   <si>
-    <t>C04沈鞍管理中心</t>
+    <t>C04沈鞍去敏</t>
   </si>
   <si>
     <t>50834999</t>
@@ -3181,13 +3181,13 @@
     <t>50835059</t>
   </si>
   <si>
-    <t>鞍山万科城</t>
+    <t>鞍山去敏城</t>
   </si>
   <si>
     <t>50904329</t>
   </si>
   <si>
-    <t>沈阳万科西盛花园</t>
+    <t>沈阳去敏西盛花园</t>
   </si>
   <si>
     <t>50905912</t>
@@ -3199,7 +3199,7 @@
     <t>50907120</t>
   </si>
   <si>
-    <t>Q沈阳信达万科城</t>
+    <t>Q沈阳信达去敏城</t>
   </si>
   <si>
     <t>50835002</t>
@@ -3241,7 +3241,7 @@
     <t>50904071</t>
   </si>
   <si>
-    <t>鞍山万科金域华府</t>
+    <t>鞍山去敏金域华府</t>
   </si>
   <si>
     <t>50835019</t>
@@ -3271,10 +3271,10 @@
     <t>50906032</t>
   </si>
   <si>
-    <t>沈阳万科四季苑</t>
-  </si>
-  <si>
-    <t>C05阵地经营体</t>
+    <t>沈阳去敏四季苑</t>
+  </si>
+  <si>
+    <t>C05去敏</t>
   </si>
   <si>
     <t>50835070</t>
@@ -3304,13 +3304,13 @@
     <t>50904892</t>
   </si>
   <si>
-    <t>Q大连万科百年港湾</t>
+    <t>Q大连去敏百年港湾</t>
   </si>
   <si>
     <t>50906210</t>
   </si>
   <si>
-    <t>大连万科翡翠公园</t>
+    <t>大连去敏翡翠公园</t>
   </si>
   <si>
     <t>50835076</t>
@@ -3328,13 +3328,13 @@
     <t>50835079</t>
   </si>
   <si>
-    <t>大连万科城市之光</t>
+    <t>大连去敏城市之光</t>
   </si>
   <si>
     <t>50900849</t>
   </si>
   <si>
-    <t>大连万科半山半海</t>
+    <t>大连去敏半山半海</t>
   </si>
   <si>
     <t>50835074</t>
@@ -3346,7 +3346,7 @@
     <t>50835078</t>
   </si>
   <si>
-    <t>大连万科城</t>
+    <t>大连去敏城</t>
   </si>
   <si>
     <t>50835063</t>
@@ -3370,7 +3370,7 @@
     <t>50835080</t>
   </si>
   <si>
-    <t>大连万科公园里二期</t>
+    <t>大连去敏公园里二期</t>
   </si>
   <si>
     <t>50900275</t>
@@ -3400,7 +3400,7 @@
     <t>50906971</t>
   </si>
   <si>
-    <t>大连万科八栋墅</t>
+    <t>大连去敏八栋墅</t>
   </si>
   <si>
     <t>50835066</t>
@@ -3412,19 +3412,19 @@
     <t>50906052</t>
   </si>
   <si>
-    <t>Q大连万科尚品中南</t>
+    <t>Q大连去敏尚品中南</t>
   </si>
   <si>
     <t>50906489</t>
   </si>
   <si>
-    <t>大连万科新都会</t>
+    <t>大连去敏新都会</t>
   </si>
   <si>
     <t>50904070</t>
   </si>
   <si>
-    <t>大连万科中南府</t>
+    <t>大连去敏中南府</t>
   </si>
   <si>
     <t>50835073</t>
@@ -3442,7 +3442,7 @@
     <t>50909923</t>
   </si>
   <si>
-    <t>Q大连万科城市印象</t>
+    <t>Q大连去敏城市印象</t>
   </si>
   <si>
     <t>50835083</t>
@@ -3457,7 +3457,7 @@
     <t>K大连沿海鉴筑</t>
   </si>
   <si>
-    <t>C06阵地经营体</t>
+    <t>C06去敏</t>
   </si>
   <si>
     <t>50835084</t>
@@ -3541,7 +3541,7 @@
     <t>50909334</t>
   </si>
   <si>
-    <t>长春万科繁荣里</t>
+    <t>长春去敏繁荣里</t>
   </si>
   <si>
     <t>50900670</t>
@@ -3553,7 +3553,7 @@
     <t>50906298</t>
   </si>
   <si>
-    <t>长春万科城市之光</t>
+    <t>长春去敏城市之光</t>
   </si>
   <si>
     <t>50836777</t>
@@ -3568,7 +3568,7 @@
     <t>Q长春信达龙湾</t>
   </si>
   <si>
-    <t>C07长春东南管理中心</t>
+    <t>C07长春东南去敏</t>
   </si>
   <si>
     <t>50836776</t>
@@ -3586,7 +3586,7 @@
     <t>50835100</t>
   </si>
   <si>
-    <t>吉林万科城一期</t>
+    <t>吉林去敏城一期</t>
   </si>
   <si>
     <t>50835102</t>
@@ -3598,37 +3598,37 @@
     <t>50835106</t>
   </si>
   <si>
-    <t>长春万科城</t>
+    <t>长春去敏城</t>
   </si>
   <si>
     <t>50836779</t>
   </si>
   <si>
-    <t>吉林万科上东区</t>
+    <t>吉林去敏上东区</t>
   </si>
   <si>
     <t>50909345</t>
   </si>
   <si>
-    <t>哈尔滨万科招商城市之光</t>
+    <t>哈尔滨去敏招商城市之光</t>
   </si>
   <si>
     <t>50904279</t>
   </si>
   <si>
-    <t>长春万科惠斯勒小镇班芙花园</t>
+    <t>长春去敏惠斯勒小镇班芙花园</t>
   </si>
   <si>
     <t>50901050</t>
   </si>
   <si>
-    <t>长春万科如园</t>
+    <t>长春去敏如园</t>
   </si>
   <si>
     <t>50835099</t>
   </si>
   <si>
-    <t>吉林万科城二期</t>
+    <t>吉林去敏城二期</t>
   </si>
   <si>
     <t>50835105</t>
@@ -3688,7 +3688,7 @@
     <t>D</t>
   </si>
   <si>
-    <t>D01阵地经营体</t>
+    <t>D01去敏</t>
   </si>
   <si>
     <t>50900679</t>
@@ -3742,7 +3742,7 @@
     <t>50835138</t>
   </si>
   <si>
-    <t>北京万科城</t>
+    <t>北京去敏城</t>
   </si>
   <si>
     <t>50835141</t>
@@ -3907,7 +3907,7 @@
     <t>Q北京首创天阅嘉苑</t>
   </si>
   <si>
-    <t>D02北京东部管理中心</t>
+    <t>D02北京东部去敏</t>
   </si>
   <si>
     <t>50835146</t>
@@ -3937,7 +3937,7 @@
     <t>50835160</t>
   </si>
   <si>
-    <t>北京万科红</t>
+    <t>北京去敏红</t>
   </si>
   <si>
     <t>50836615</t>
@@ -4018,7 +4018,7 @@
     <t>北京润泉家苑</t>
   </si>
   <si>
-    <t>D03北京西南管理中心</t>
+    <t>D03北京西南去敏</t>
   </si>
   <si>
     <t>50835169</t>
@@ -4165,13 +4165,13 @@
     <t>北京九晟商业广场</t>
   </si>
   <si>
-    <t>D04阵地经营体</t>
+    <t>D04去敏</t>
   </si>
   <si>
     <t>50835189</t>
   </si>
   <si>
-    <t>廊坊香河五矿万科城</t>
+    <t>廊坊香河五矿去敏城</t>
   </si>
   <si>
     <t>50835197</t>
@@ -4297,7 +4297,7 @@
     <t>50835191</t>
   </si>
   <si>
-    <t>秦皇岛天洋万科戴河丽</t>
+    <t>秦皇岛天洋去敏戴河丽</t>
   </si>
   <si>
     <t>50835185</t>
@@ -4345,7 +4345,7 @@
     <t>50909144</t>
   </si>
   <si>
-    <t>唐山万科金域缇香</t>
+    <t>唐山去敏金域缇香</t>
   </si>
   <si>
     <t>50835202</t>
@@ -4384,7 +4384,7 @@
     <t>唐山金域华府</t>
   </si>
   <si>
-    <t>D05天津城区管理中心</t>
+    <t>D05天津城区去敏</t>
   </si>
   <si>
     <t>50908671</t>
@@ -4567,7 +4567,7 @@
     <t>天津新里程家园</t>
   </si>
   <si>
-    <t>D06阵地经营体</t>
+    <t>D06去敏</t>
   </si>
   <si>
     <t>50900317</t>
@@ -4591,7 +4591,7 @@
     <t>50835253</t>
   </si>
   <si>
-    <t>青岛万科城</t>
+    <t>青岛去敏城</t>
   </si>
   <si>
     <t>50835237</t>
@@ -4657,7 +4657,7 @@
     <t>50835254</t>
   </si>
   <si>
-    <t>青岛万科桃花源</t>
+    <t>青岛去敏桃花源</t>
   </si>
   <si>
     <t>50835258</t>
@@ -4681,13 +4681,13 @@
     <t>50835255</t>
   </si>
   <si>
-    <t>青岛万科紫台</t>
+    <t>青岛去敏紫台</t>
   </si>
   <si>
     <t>50903589</t>
   </si>
   <si>
-    <t>青岛万科未来城</t>
+    <t>青岛去敏未来城</t>
   </si>
   <si>
     <t>50835239</t>
@@ -4723,7 +4723,7 @@
     <t>50904000</t>
   </si>
   <si>
-    <t>青岛万科金域华府</t>
+    <t>青岛去敏金域华府</t>
   </si>
   <si>
     <t>50835243</t>
@@ -4756,7 +4756,7 @@
     <t>Q青岛凯景广场</t>
   </si>
   <si>
-    <t>D07阵地经营体</t>
+    <t>D07去敏</t>
   </si>
   <si>
     <t>50835262</t>
@@ -4810,13 +4810,13 @@
     <t>50835284</t>
   </si>
   <si>
-    <t>青岛平度万科城</t>
+    <t>青岛平度去敏城</t>
   </si>
   <si>
     <t>50835285</t>
   </si>
   <si>
-    <t>青岛平度万科城观荷</t>
+    <t>青岛平度去敏城观荷</t>
   </si>
   <si>
     <t>50835288</t>
@@ -4840,7 +4840,7 @@
     <t>50907184</t>
   </si>
   <si>
-    <t>烟台万科城市之光</t>
+    <t>烟台去敏城市之光</t>
   </si>
   <si>
     <t>50835268</t>
@@ -4864,7 +4864,7 @@
     <t>50835291</t>
   </si>
   <si>
-    <t>烟台万科城</t>
+    <t>烟台去敏城</t>
   </si>
   <si>
     <t>50903372</t>
@@ -4876,7 +4876,7 @@
     <t>50901092</t>
   </si>
   <si>
-    <t>青岛万科朗润园</t>
+    <t>青岛去敏朗润园</t>
   </si>
   <si>
     <t>50835276</t>
@@ -4930,7 +4930,7 @@
     <t>50903741</t>
   </si>
   <si>
-    <t>烟台万科翡翠公园</t>
+    <t>烟台去敏翡翠公园</t>
   </si>
   <si>
     <t>50835259</t>
@@ -4942,7 +4942,7 @@
     <t>50907183</t>
   </si>
   <si>
-    <t>青岛万科生态新城如园</t>
+    <t>青岛去敏生态新城如园</t>
   </si>
   <si>
     <t>50836865</t>
@@ -4981,25 +4981,25 @@
     <t>烟台假日风景</t>
   </si>
   <si>
-    <t>D08济南城区管理中心</t>
+    <t>D08济南城区去敏</t>
   </si>
   <si>
     <t>50835296</t>
   </si>
   <si>
-    <t>济南万科城</t>
+    <t>济南去敏城</t>
   </si>
   <si>
     <t>50835299</t>
   </si>
   <si>
-    <t>济南万科天泰金域国际</t>
+    <t>济南去敏天泰金域国际</t>
   </si>
   <si>
     <t>50835300</t>
   </si>
   <si>
-    <t>济南万科新里程花园</t>
+    <t>济南去敏新里程花园</t>
   </si>
   <si>
     <t>50836788</t>
@@ -5029,19 +5029,19 @@
     <t>50835297</t>
   </si>
   <si>
-    <t>济南万科公园里家园</t>
+    <t>济南去敏公园里家园</t>
   </si>
   <si>
     <t>50835298</t>
   </si>
   <si>
-    <t>济南万科金域国际天泰</t>
+    <t>济南去敏金域国际天泰</t>
   </si>
   <si>
     <t>50904696</t>
   </si>
   <si>
-    <t>济南万科麓城</t>
+    <t>济南去敏麓城</t>
   </si>
   <si>
     <t>50904736</t>
@@ -5059,19 +5059,19 @@
     <t>50907122</t>
   </si>
   <si>
-    <t>济南万科龙湖紫郡</t>
+    <t>济南去敏龙湖紫郡</t>
   </si>
   <si>
     <t>50907123</t>
   </si>
   <si>
-    <t>济南万科龙湖城市之光小区</t>
+    <t>济南去敏龙湖城市之光小区</t>
   </si>
   <si>
     <t>50835301</t>
   </si>
   <si>
-    <t>济南万科幸福里小区</t>
+    <t>济南去敏幸福里小区</t>
   </si>
   <si>
     <t>50907133</t>
@@ -5083,7 +5083,7 @@
     <t>50907136</t>
   </si>
   <si>
-    <t>济南万科海晏门小区</t>
+    <t>济南去敏海晏门小区</t>
   </si>
   <si>
     <t>50836789</t>
@@ -5095,7 +5095,7 @@
     <t>50907137</t>
   </si>
   <si>
-    <t>济南万科悦峯花园</t>
+    <t>济南去敏悦峯花园</t>
   </si>
   <si>
     <t>50835294</t>
@@ -5104,7 +5104,7 @@
     <t>R济南太阳树花园</t>
   </si>
   <si>
-    <t>D09太原管理中心</t>
+    <t>D09太原去敏</t>
   </si>
   <si>
     <t>50835188</t>
@@ -5116,7 +5116,7 @@
     <t>50904253</t>
   </si>
   <si>
-    <t>太原万科金域蓝湾</t>
+    <t>太原去敏金域蓝湾</t>
   </si>
   <si>
     <t>50903489</t>
@@ -5128,7 +5128,7 @@
     <t>50835195</t>
   </si>
   <si>
-    <t>太原万科城</t>
+    <t>太原去敏城</t>
   </si>
   <si>
     <t>50835194</t>
@@ -5158,13 +5158,13 @@
     <t>50900655</t>
   </si>
   <si>
-    <t>太原四建万科蓝山</t>
+    <t>太原四建去敏蓝山</t>
   </si>
   <si>
     <t>E</t>
   </si>
   <si>
-    <t>E01阵地经营体</t>
+    <t>E01去敏</t>
   </si>
   <si>
     <t>50835304</t>
@@ -5347,7 +5347,7 @@
     <t>苏州金域生活广场</t>
   </si>
   <si>
-    <t>E02阵地经营体</t>
+    <t>E02去敏</t>
   </si>
   <si>
     <t>50835334</t>
@@ -5434,7 +5434,7 @@
     <t>Q无锡太湖威尼斯花园</t>
   </si>
   <si>
-    <t>E03阵地经营体</t>
+    <t>E03去敏</t>
   </si>
   <si>
     <t>50835361</t>
@@ -5542,7 +5542,7 @@
     <t>50835366</t>
   </si>
   <si>
-    <t>徐州万科城</t>
+    <t>徐州去敏城</t>
   </si>
   <si>
     <t>50836831</t>
@@ -5605,7 +5605,7 @@
     <t>Q南京天正滨江花园</t>
   </si>
   <si>
-    <t>E04阵地经营体</t>
+    <t>E04去敏</t>
   </si>
   <si>
     <t>50835368</t>
@@ -5635,7 +5635,7 @@
     <t>50835385</t>
   </si>
   <si>
-    <t>扬州万科城</t>
+    <t>扬州去敏城</t>
   </si>
   <si>
     <t>50835383</t>
@@ -5779,7 +5779,7 @@
     <t>50835386</t>
   </si>
   <si>
-    <t>扬州万科金色梦想花园</t>
+    <t>扬州去敏金色梦想花园</t>
   </si>
   <si>
     <t>50900903</t>
@@ -5806,7 +5806,7 @@
     <t>Q扬州唐悦国际花园</t>
   </si>
   <si>
-    <t>E05阵地经营体</t>
+    <t>E05去敏</t>
   </si>
   <si>
     <t>50905531</t>
@@ -5830,7 +5830,7 @@
     <t>50835401</t>
   </si>
   <si>
-    <t>合肥万科城</t>
+    <t>合肥去敏城</t>
   </si>
   <si>
     <t>50835403</t>
@@ -5872,7 +5872,7 @@
     <t>50835404</t>
   </si>
   <si>
-    <t>芜湖万科城</t>
+    <t>芜湖去敏城</t>
   </si>
   <si>
     <t>50835392</t>
@@ -5896,7 +5896,7 @@
     <t>50835402</t>
   </si>
   <si>
-    <t>合肥万科城市公馆</t>
+    <t>合肥去敏城市公馆</t>
   </si>
   <si>
     <t>50907461</t>
@@ -5935,7 +5935,7 @@
     <t>Q合肥国际丽晶城</t>
   </si>
   <si>
-    <t>E06苏州城东管理中心</t>
+    <t>E06苏州城东去敏</t>
   </si>
   <si>
     <t>50835421</t>
@@ -6028,7 +6028,7 @@
     <t>苏州大家花园</t>
   </si>
   <si>
-    <t>E07无锡城东管理中心</t>
+    <t>E07无锡城东去敏</t>
   </si>
   <si>
     <t>50835451</t>
@@ -6064,7 +6064,7 @@
     <t>50835453</t>
   </si>
   <si>
-    <t>无锡万科家园</t>
+    <t>无锡去敏家园</t>
   </si>
   <si>
     <t>50900707</t>
@@ -6121,7 +6121,7 @@
     <t>常州柏悦湾花园</t>
   </si>
   <si>
-    <t>E08上海高端管理中心</t>
+    <t>E08上海高端去敏</t>
   </si>
   <si>
     <t>50906968</t>
@@ -6169,7 +6169,7 @@
     <t>50835468</t>
   </si>
   <si>
-    <t>上海万科广场</t>
+    <t>上海去敏广场</t>
   </si>
   <si>
     <t>50835456</t>
@@ -6232,7 +6232,7 @@
     <t>Q上海佘山银湖别墅</t>
   </si>
   <si>
-    <t>E09上海西南管理中心</t>
+    <t>E09上海西南去敏</t>
   </si>
   <si>
     <t>50835478</t>
@@ -6250,7 +6250,7 @@
     <t>50835476</t>
   </si>
   <si>
-    <t>上海春申万科城</t>
+    <t>上海春申去敏城</t>
   </si>
   <si>
     <t>50835489</t>
@@ -6310,7 +6310,7 @@
     <t>50835487</t>
   </si>
   <si>
-    <t>上海万科海尚华庭</t>
+    <t>上海去敏海尚华庭</t>
   </si>
   <si>
     <t>50900861</t>
@@ -6373,7 +6373,7 @@
     <t>上海马桥景城品雅苑</t>
   </si>
   <si>
-    <t>E10上海东北管理中心</t>
+    <t>E10上海东北去敏</t>
   </si>
   <si>
     <t>50835492</t>
@@ -6568,7 +6568,7 @@
     <t>K上海中邦城市园（A地</t>
   </si>
   <si>
-    <t>E11上海西北管理中心</t>
+    <t>E11上海西北去敏</t>
   </si>
   <si>
     <t>50835520</t>
@@ -6634,7 +6634,7 @@
     <t>50905465</t>
   </si>
   <si>
-    <t>上海万科天空融苑</t>
+    <t>上海去敏天空融苑</t>
   </si>
   <si>
     <t>50905464</t>
@@ -6712,7 +6712,7 @@
     <t>50835534</t>
   </si>
   <si>
-    <t>上海虹桥万科润园</t>
+    <t>上海虹桥去敏润园</t>
   </si>
   <si>
     <t>50835526</t>
@@ -6727,7 +6727,7 @@
     <t>上海尚景苑</t>
   </si>
   <si>
-    <t>E12阵地经营体</t>
+    <t>E12去敏</t>
   </si>
   <si>
     <t>50835358</t>
@@ -6814,7 +6814,7 @@
     <t>Q南京美之国花园</t>
   </si>
   <si>
-    <t>E13阵地经营体</t>
+    <t>E13去敏</t>
   </si>
   <si>
     <t>50835418</t>
@@ -6910,7 +6910,7 @@
     <t>F</t>
   </si>
   <si>
-    <t>F01阵地经营体</t>
+    <t>F01去敏</t>
   </si>
   <si>
     <t>50802428</t>
@@ -6997,7 +6997,7 @@
     <t>R广州大运家园</t>
   </si>
   <si>
-    <t>F02阵地经营体</t>
+    <t>F02去敏</t>
   </si>
   <si>
     <t>50802448</t>
@@ -7108,7 +7108,7 @@
     <t>广州金色康苑</t>
   </si>
   <si>
-    <t>F03广州东清管理中心</t>
+    <t>F03广州东清去敏</t>
   </si>
   <si>
     <t>50900217</t>
@@ -7120,13 +7120,13 @@
     <t>50802458</t>
   </si>
   <si>
-    <t>广州万科城花园</t>
+    <t>广州去敏城花园</t>
   </si>
   <si>
     <t>50802462</t>
   </si>
   <si>
-    <t>清远万科华府</t>
+    <t>清远去敏华府</t>
   </si>
   <si>
     <t>50802454</t>
@@ -7180,7 +7180,7 @@
     <t>50802459</t>
   </si>
   <si>
-    <t>广州万科城新里程</t>
+    <t>广州去敏城新里程</t>
   </si>
   <si>
     <t>50901346</t>
@@ -7222,7 +7222,7 @@
     <t>50802461</t>
   </si>
   <si>
-    <t>清远万科城</t>
+    <t>清远去敏城</t>
   </si>
   <si>
     <t>50802456</t>
@@ -7231,7 +7231,7 @@
     <t>广州金色梦想花园</t>
   </si>
   <si>
-    <t>F04阵地经营体</t>
+    <t>F04去敏</t>
   </si>
   <si>
     <t>50835546</t>
@@ -7273,7 +7273,7 @@
     <t>50835556</t>
   </si>
   <si>
-    <t>佛山万科广场</t>
+    <t>佛山去敏广场</t>
   </si>
   <si>
     <t>50904347</t>
@@ -7303,7 +7303,7 @@
     <t>50906556</t>
   </si>
   <si>
-    <t>万科万域华庭</t>
+    <t>去敏万域华庭</t>
   </si>
   <si>
     <t>50906213</t>
@@ -7333,7 +7333,7 @@
     <t>50907146</t>
   </si>
   <si>
-    <t>佛山万科金色雅苑</t>
+    <t>佛山去敏金色雅苑</t>
   </si>
   <si>
     <t>50908742</t>
@@ -7363,16 +7363,16 @@
     <t>50835567</t>
   </si>
   <si>
-    <t>佛山万科金色诚悦花园</t>
+    <t>佛山去敏金色诚悦花园</t>
   </si>
   <si>
     <t>50836733</t>
   </si>
   <si>
-    <t>佛山万科金域缇香花园</t>
-  </si>
-  <si>
-    <t>F05佛山顺德管理中心</t>
+    <t>佛山去敏金域缇香花园</t>
+  </si>
+  <si>
+    <t>F05佛山顺德去敏</t>
   </si>
   <si>
     <t>50835566</t>
@@ -7384,7 +7384,7 @@
     <t>50835555</t>
   </si>
   <si>
-    <t>佛山万科城</t>
+    <t>佛山去敏城</t>
   </si>
   <si>
     <t>50835557</t>
@@ -7438,7 +7438,7 @@
     <t>50907157</t>
   </si>
   <si>
-    <t>佛山万科美的西江悦花园</t>
+    <t>佛山去敏美的西江悦花园</t>
   </si>
   <si>
     <t>50835559</t>
@@ -7453,7 +7453,7 @@
     <t>佛山缤纷四季北区</t>
   </si>
   <si>
-    <t>F06阵地经营体</t>
+    <t>F06去敏</t>
   </si>
   <si>
     <t>50835573</t>
@@ -7555,7 +7555,7 @@
     <t>50835592</t>
   </si>
   <si>
-    <t>珠海万科城市中心</t>
+    <t>珠海去敏城市中心</t>
   </si>
   <si>
     <t>50835570</t>
@@ -7639,7 +7639,7 @@
     <t>50909005</t>
   </si>
   <si>
-    <t>珠海万科城市中心回迁区</t>
+    <t>珠海去敏城市中心回迁区</t>
   </si>
   <si>
     <t>50835569</t>
@@ -7672,7 +7672,7 @@
     <t>R珠海恒裕江山汇</t>
   </si>
   <si>
-    <t>F07长沙橘洲管理中心</t>
+    <t>F07长沙橘洲去敏</t>
   </si>
   <si>
     <t>50835601</t>
@@ -7765,7 +7765,7 @@
     <t>R长沙和庄</t>
   </si>
   <si>
-    <t>F08南宁城区管理中心</t>
+    <t>F08南宁城区去敏</t>
   </si>
   <si>
     <t>50835615</t>
@@ -7819,7 +7819,7 @@
     <t>50835619</t>
   </si>
   <si>
-    <t>南宁万科城</t>
+    <t>南宁去敏城</t>
   </si>
   <si>
     <t>50904587</t>
@@ -7837,10 +7837,10 @@
     <t>50907953</t>
   </si>
   <si>
-    <t>南宁万科公园里</t>
-  </si>
-  <si>
-    <t>F09长沙麓山管理中心</t>
+    <t>南宁去敏公园里</t>
+  </si>
+  <si>
+    <t>F09长沙麓山去敏</t>
   </si>
   <si>
     <t>50835606</t>
@@ -7858,7 +7858,7 @@
     <t>50835609</t>
   </si>
   <si>
-    <t>长沙万科城</t>
+    <t>长沙去敏城</t>
   </si>
   <si>
     <t>50835600</t>
@@ -7900,7 +7900,7 @@
     <t>50900321</t>
   </si>
   <si>
-    <t>长沙万科城-BG</t>
+    <t>长沙去敏城-BG</t>
   </si>
   <si>
     <t>50904468</t>
@@ -7918,7 +7918,7 @@
     <t>G</t>
   </si>
   <si>
-    <t>G01武汉汉口管理中心</t>
+    <t>G01武汉汉口去敏</t>
   </si>
   <si>
     <t>50835622</t>
@@ -8011,7 +8011,7 @@
     <t>武汉高尔夫城市花园</t>
   </si>
   <si>
-    <t>G02阵地经营体</t>
+    <t>G02去敏</t>
   </si>
   <si>
     <t>50835646</t>
@@ -8104,7 +8104,7 @@
     <t>Q武汉光谷汇景</t>
   </si>
   <si>
-    <t>G03武汉汉阳管理中心</t>
+    <t>G03武汉汉阳去敏</t>
   </si>
   <si>
     <t>50835668</t>
@@ -8143,7 +8143,7 @@
     <t>Q武汉市汇博苑小区</t>
   </si>
   <si>
-    <t>G04阵地经营体</t>
+    <t>G04去敏</t>
   </si>
   <si>
     <t>50835677</t>
@@ -8161,7 +8161,7 @@
     <t>50835684</t>
   </si>
   <si>
-    <t>西安万科东方传奇</t>
+    <t>西安去敏东方传奇</t>
   </si>
   <si>
     <t>50835688</t>
@@ -8179,7 +8179,7 @@
     <t>50835686</t>
   </si>
   <si>
-    <t>西安万科金域东郡</t>
+    <t>西安去敏金域东郡</t>
   </si>
   <si>
     <t>50835673</t>
@@ -8197,7 +8197,7 @@
     <t>50835682</t>
   </si>
   <si>
-    <t>西安万科城</t>
+    <t>西安去敏城</t>
   </si>
   <si>
     <t>50900917</t>
@@ -8209,7 +8209,7 @@
     <t>50901358</t>
   </si>
   <si>
-    <t>中铁建万科翡翠国际</t>
+    <t>中铁建去敏翡翠国际</t>
   </si>
   <si>
     <t>50907286</t>
@@ -8221,19 +8221,19 @@
     <t>50906604</t>
   </si>
   <si>
-    <t>西安万科城润园</t>
+    <t>西安去敏城润园</t>
   </si>
   <si>
     <t>50835683</t>
   </si>
   <si>
-    <t>西安万科城8#地</t>
+    <t>西安去敏城8#地</t>
   </si>
   <si>
     <t>50904259</t>
   </si>
   <si>
-    <t>西安万科翡翠天誉</t>
+    <t>西安去敏翡翠天誉</t>
   </si>
   <si>
     <t>50835687</t>
@@ -8251,7 +8251,7 @@
     <t>50835685</t>
   </si>
   <si>
-    <t>西安万科金色悦郡</t>
+    <t>西安去敏金色悦郡</t>
   </si>
   <si>
     <t>50835679</t>
@@ -8260,13 +8260,13 @@
     <t>西安金色悦城</t>
   </si>
   <si>
-    <t>G05郑州城区管理中心</t>
+    <t>G05郑州城区去敏</t>
   </si>
   <si>
     <t>50835703</t>
   </si>
   <si>
-    <t>万科城秋棠苑</t>
+    <t>去敏城秋棠苑</t>
   </si>
   <si>
     <t>50835706</t>
@@ -8278,19 +8278,19 @@
     <t>50835709</t>
   </si>
   <si>
-    <t>郑州万科美景魅力之城</t>
+    <t>郑州去敏美景魅力之城</t>
   </si>
   <si>
     <t>50835711</t>
   </si>
   <si>
-    <t>郑州万科城锦枫苑</t>
+    <t>郑州去敏城锦枫苑</t>
   </si>
   <si>
     <t>50835712</t>
   </si>
   <si>
-    <t>郑州万科城紫兰苑</t>
+    <t>郑州去敏城紫兰苑</t>
   </si>
   <si>
     <t>50835696</t>
@@ -8350,13 +8350,13 @@
     <t>50907204</t>
   </si>
   <si>
-    <t>郑州万科·美景魅力之城东麓</t>
+    <t>郑州去敏·美景魅力之城东麓</t>
   </si>
   <si>
     <t>50901568</t>
   </si>
   <si>
-    <t>郑州万科城嘉兰苑物业服务中心</t>
+    <t>郑州去敏城嘉兰苑物业服务中心</t>
   </si>
   <si>
     <t>50904080</t>
@@ -8374,7 +8374,7 @@
     <t>50905937</t>
   </si>
   <si>
-    <t>郑州万科城琅寓物业服务中心</t>
+    <t>郑州去敏城琅寓物业服务中心</t>
   </si>
   <si>
     <t>50835705</t>
@@ -8386,10 +8386,10 @@
     <t>50905582</t>
   </si>
   <si>
-    <t>郑州万科荣成兰园</t>
-  </si>
-  <si>
-    <t>G06武汉中部管理中心</t>
+    <t>郑州去敏荣成兰园</t>
+  </si>
+  <si>
+    <t>G06武汉中部去敏</t>
   </si>
   <si>
     <t>50835650</t>
@@ -8437,7 +8437,7 @@
     <t>50835637</t>
   </si>
   <si>
-    <t>武汉万科城</t>
+    <t>武汉去敏城</t>
   </si>
   <si>
     <t>50835639</t>
@@ -8455,7 +8455,7 @@
     <t>50908520</t>
   </si>
   <si>
-    <t>武汉万科金域时代</t>
+    <t>武汉去敏金域时代</t>
   </si>
   <si>
     <t>50835653</t>
@@ -8479,7 +8479,7 @@
     <t>H</t>
   </si>
   <si>
-    <t>H01阵地经营体</t>
+    <t>H01去敏</t>
   </si>
   <si>
     <t>50835723</t>
@@ -8515,13 +8515,13 @@
     <t>50835730</t>
   </si>
   <si>
-    <t>成都万科第五城</t>
+    <t>成都去敏第五城</t>
   </si>
   <si>
     <t>50906764</t>
   </si>
   <si>
-    <t>成都万科.翡翠公园</t>
+    <t>成都去敏.翡翠公园</t>
   </si>
   <si>
     <t>50835729</t>
@@ -8620,7 +8620,7 @@
     <t>成都金色领域</t>
   </si>
   <si>
-    <t>H02阵地经营体</t>
+    <t>H02去敏</t>
   </si>
   <si>
     <t>50835747</t>
@@ -8755,49 +8755,49 @@
     <t>成都金色家园</t>
   </si>
   <si>
-    <t>H03阵地经营体</t>
+    <t>H03去敏</t>
   </si>
   <si>
     <t>50901896</t>
   </si>
   <si>
-    <t>重庆中开·熙岸A区</t>
+    <t>去敏中开·熙岸A区</t>
   </si>
   <si>
     <t>50835756</t>
   </si>
   <si>
-    <t>重庆御澜道</t>
+    <t>去敏御澜道</t>
   </si>
   <si>
     <t>50835752</t>
   </si>
   <si>
-    <t>重庆金色悦城</t>
+    <t>去敏金色悦城</t>
   </si>
   <si>
     <t>50835754</t>
   </si>
   <si>
-    <t>重庆万科城</t>
+    <t>去敏去敏城</t>
   </si>
   <si>
     <t>50835753</t>
   </si>
   <si>
-    <t>重庆缇香郡</t>
+    <t>去敏缇香郡</t>
   </si>
   <si>
     <t>50835749</t>
   </si>
   <si>
-    <t>CSW重庆首创光和城</t>
+    <t>CSW去敏首创光和城</t>
   </si>
   <si>
     <t>50835758</t>
   </si>
   <si>
-    <t>重庆悦湾</t>
+    <t>去敏悦湾</t>
   </si>
   <si>
     <t>50904340</t>
@@ -8809,46 +8809,46 @@
     <t>50835748</t>
   </si>
   <si>
-    <t>CSW重庆首创城</t>
+    <t>CSW去敏首创城</t>
   </si>
   <si>
     <t>50835757</t>
   </si>
   <si>
-    <t>重庆悦府.悦峰</t>
+    <t>去敏悦府.悦峰</t>
   </si>
   <si>
     <t>50906903</t>
   </si>
   <si>
-    <t>Q重庆首创嘉陵二期</t>
+    <t>Q去敏首创嘉陵二期</t>
   </si>
   <si>
     <t>50908643</t>
   </si>
   <si>
-    <t>重庆观承</t>
+    <t>去敏观承</t>
   </si>
   <si>
     <t>50835755</t>
   </si>
   <si>
-    <t>重庆渝园.朗润园</t>
+    <t>去敏渝园.朗润园</t>
   </si>
   <si>
     <t>50901048</t>
   </si>
   <si>
-    <t>重庆蓝澳岛</t>
+    <t>去敏蓝澳岛</t>
   </si>
   <si>
     <t>50909428</t>
   </si>
   <si>
-    <t>重庆金域华庭</t>
-  </si>
-  <si>
-    <t>H04昆明北部管理中心</t>
+    <t>去敏金域华庭</t>
+  </si>
+  <si>
+    <t>H04昆明北部去敏</t>
   </si>
   <si>
     <t>50835759</t>
@@ -8953,7 +8953,7 @@
     <t>R昆明金色紫竹园</t>
   </si>
   <si>
-    <t>H05阵地经营体</t>
+    <t>H05去敏</t>
   </si>
   <si>
     <t>50901627</t>
@@ -8983,7 +8983,7 @@
     <t>50835780</t>
   </si>
   <si>
-    <t>成都万科城</t>
+    <t>成都去敏城</t>
   </si>
   <si>
     <t>50835787</t>
@@ -9025,7 +9025,7 @@
     <t>50903605</t>
   </si>
   <si>
-    <t>成都万科理想城</t>
+    <t>成都去敏理想城</t>
   </si>
   <si>
     <t>50835785</t>
@@ -9070,76 +9070,76 @@
     <t>成都翡翠郡</t>
   </si>
   <si>
-    <t>H06重庆南部管理中心</t>
+    <t>H06去敏南部去敏</t>
   </si>
   <si>
     <t>50835795</t>
   </si>
   <si>
-    <t>重庆西城</t>
+    <t>去敏西城</t>
   </si>
   <si>
     <t>50835788</t>
   </si>
   <si>
-    <t>CSW重庆首创鸿恩国际</t>
+    <t>CSW去敏首创鸿恩国际</t>
   </si>
   <si>
     <t>50836619</t>
   </si>
   <si>
-    <t>Q重庆中核紫金一品</t>
+    <t>Q去敏中核紫金一品</t>
   </si>
   <si>
     <t>50835792</t>
   </si>
   <si>
-    <t>重庆锦程</t>
+    <t>去敏锦程</t>
   </si>
   <si>
     <t>50909252</t>
   </si>
   <si>
-    <t>重庆翡翠天麓</t>
+    <t>去敏翡翠天麓</t>
   </si>
   <si>
     <t>50906902</t>
   </si>
   <si>
-    <t>重庆瑞丰鹅岭山</t>
+    <t>去敏瑞丰鹅岭山</t>
   </si>
   <si>
     <t>50835790</t>
   </si>
   <si>
-    <t>重庆金域学府·翰江</t>
+    <t>去敏金域学府·翰江</t>
   </si>
   <si>
     <t>50835796</t>
   </si>
   <si>
-    <t>重庆西九</t>
+    <t>去敏西九</t>
   </si>
   <si>
     <t>50835791</t>
   </si>
   <si>
-    <t>重庆金域学府·翰林</t>
+    <t>去敏金域学府·翰林</t>
   </si>
   <si>
     <t>50835794</t>
   </si>
   <si>
-    <t>重庆万科锦尚</t>
+    <t>去敏去敏锦尚</t>
   </si>
   <si>
     <t>50909430</t>
   </si>
   <si>
-    <t>Q重庆北麓官邸</t>
-  </si>
-  <si>
-    <t>H07贵阳城区管理中心</t>
+    <t>Q去敏北麓官邸</t>
+  </si>
+  <si>
+    <t>H07贵阳城区去敏</t>
   </si>
   <si>
     <t>50835797</t>
@@ -9163,7 +9163,7 @@
     <t>50835804</t>
   </si>
   <si>
-    <t>贵阳万科城</t>
+    <t>贵阳去敏城</t>
   </si>
   <si>
     <t>50835800</t>
@@ -9187,7 +9187,7 @@
     <t>50835806</t>
   </si>
   <si>
-    <t>贵阳万科云岩大都会</t>
+    <t>贵阳去敏云岩大都会</t>
   </si>
   <si>
     <t>50835802</t>
@@ -9199,10 +9199,10 @@
     <t>50835805</t>
   </si>
   <si>
-    <t>贵阳万科悦城</t>
-  </si>
-  <si>
-    <t>H08昆明南部管理中心</t>
+    <t>贵阳去敏悦城</t>
+  </si>
+  <si>
+    <t>H08昆明南部去敏</t>
   </si>
   <si>
     <t>50835760</t>
@@ -9238,7 +9238,7 @@
     <t>50907974</t>
   </si>
   <si>
-    <t>昆明万科翡翠</t>
+    <t>昆明去敏翡翠</t>
   </si>
   <si>
     <t>50907227</t>
@@ -9258,11 +9258,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="[$-10804]0.00%"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="[$-10804]0.00%"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -9291,11 +9291,56 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9316,21 +9361,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9338,30 +9377,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9383,15 +9398,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9399,21 +9406,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9427,11 +9420,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -9462,6 +9462,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -9474,7 +9480,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9492,7 +9510,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9504,13 +9528,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9522,13 +9546,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9540,31 +9606,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9576,55 +9624,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9637,12 +9643,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9680,52 +9680,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9746,16 +9711,36 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9768,153 +9753,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -9937,10 +9937,10 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -11726,7 +11726,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="27" ht="31" spans="1:18">
+    <row r="27" ht="16" spans="1:18">
       <c r="A27" s="3" t="s">
         <v>18</v>
       </c>
@@ -12230,7 +12230,7 @@
         <v>0.0625</v>
       </c>
     </row>
-    <row r="36" ht="31" spans="1:18">
+    <row r="36" ht="16" spans="1:18">
       <c r="A36" s="2" t="s">
         <v>18</v>
       </c>
@@ -13014,7 +13014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" ht="31" spans="1:18">
+    <row r="50" ht="16" spans="1:18">
       <c r="A50" s="2" t="s">
         <v>18</v>
       </c>
@@ -13070,7 +13070,7 @@
         <v>0.0300751879699</v>
       </c>
     </row>
-    <row r="51" ht="31" spans="1:18">
+    <row r="51" ht="16" spans="1:18">
       <c r="A51" s="3" t="s">
         <v>18</v>
       </c>
@@ -13686,7 +13686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" ht="31" spans="1:18">
+    <row r="62" ht="16" spans="1:18">
       <c r="A62" s="2" t="s">
         <v>18</v>
       </c>
@@ -18222,7 +18222,7 @@
         <v>0.1111111111111</v>
       </c>
     </row>
-    <row r="143" ht="31" spans="1:18">
+    <row r="143" ht="16" spans="1:18">
       <c r="A143" s="3" t="s">
         <v>18</v>
       </c>
@@ -18334,7 +18334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" ht="31" spans="1:18">
+    <row r="145" ht="16" spans="1:18">
       <c r="A145" s="3" t="s">
         <v>18</v>
       </c>
@@ -21918,7 +21918,7 @@
         <v>0.2777777777777</v>
       </c>
     </row>
-    <row r="209" ht="31" spans="1:18">
+    <row r="209" ht="16" spans="1:18">
       <c r="A209" s="3" t="s">
         <v>18</v>
       </c>
@@ -21974,7 +21974,7 @@
         <v>0.076923076923</v>
       </c>
     </row>
-    <row r="210" ht="31" spans="1:18">
+    <row r="210" ht="16" spans="1:18">
       <c r="A210" s="2" t="s">
         <v>18</v>
       </c>
@@ -22030,7 +22030,7 @@
         <v>0.0813008130081</v>
       </c>
     </row>
-    <row r="211" ht="31" spans="1:18">
+    <row r="211" ht="16" spans="1:18">
       <c r="A211" s="3" t="s">
         <v>18</v>
       </c>
@@ -23822,7 +23822,7 @@
         <v>0.0967741935483</v>
       </c>
     </row>
-    <row r="243" ht="31" spans="1:18">
+    <row r="243" ht="16" spans="1:18">
       <c r="A243" s="3" t="s">
         <v>469</v>
       </c>
@@ -24046,7 +24046,7 @@
         <v>0.1304347826086</v>
       </c>
     </row>
-    <row r="247" ht="31" spans="1:18">
+    <row r="247" ht="16" spans="1:18">
       <c r="A247" s="3" t="s">
         <v>469</v>
       </c>
@@ -24214,7 +24214,7 @@
         <v>0.0689655172413</v>
       </c>
     </row>
-    <row r="250" ht="31" spans="1:18">
+    <row r="250" ht="16" spans="1:18">
       <c r="A250" s="2" t="s">
         <v>469</v>
       </c>
@@ -24270,7 +24270,7 @@
         <v>0.074074074074</v>
       </c>
     </row>
-    <row r="251" ht="31" spans="1:18">
+    <row r="251" ht="16" spans="1:18">
       <c r="A251" s="3" t="s">
         <v>469</v>
       </c>
@@ -24326,7 +24326,7 @@
         <v>0.0833333333333</v>
       </c>
     </row>
-    <row r="252" ht="31" spans="1:18">
+    <row r="252" ht="16" spans="1:18">
       <c r="A252" s="2" t="s">
         <v>469</v>
       </c>
@@ -24438,7 +24438,7 @@
         <v>0.0714285714285</v>
       </c>
     </row>
-    <row r="254" ht="31" spans="1:18">
+    <row r="254" ht="16" spans="1:18">
       <c r="A254" s="2" t="s">
         <v>469</v>
       </c>
@@ -24550,7 +24550,7 @@
         <v>0.0869565217391</v>
       </c>
     </row>
-    <row r="256" ht="31" spans="1:18">
+    <row r="256" ht="16" spans="1:18">
       <c r="A256" s="2" t="s">
         <v>469</v>
       </c>
@@ -25110,7 +25110,7 @@
         <v>0.1052631578947</v>
       </c>
     </row>
-    <row r="266" ht="31" spans="1:18">
+    <row r="266" ht="16" spans="1:18">
       <c r="A266" s="2" t="s">
         <v>469</v>
       </c>
@@ -25222,7 +25222,7 @@
         <v>0.1111111111111</v>
       </c>
     </row>
-    <row r="268" ht="31" spans="1:18">
+    <row r="268" ht="16" spans="1:18">
       <c r="A268" s="2" t="s">
         <v>469</v>
       </c>
@@ -25446,7 +25446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" ht="31" spans="1:18">
+    <row r="272" ht="16" spans="1:18">
       <c r="A272" s="2" t="s">
         <v>469</v>
       </c>
@@ -25558,7 +25558,7 @@
         <v>0.1025641025641</v>
       </c>
     </row>
-    <row r="274" ht="31" spans="1:18">
+    <row r="274" ht="16" spans="1:18">
       <c r="A274" s="2" t="s">
         <v>469</v>
       </c>
@@ -25614,7 +25614,7 @@
         <v>0.0857142857142</v>
       </c>
     </row>
-    <row r="275" ht="31" spans="1:18">
+    <row r="275" ht="16" spans="1:18">
       <c r="A275" s="3" t="s">
         <v>469</v>
       </c>
@@ -25782,7 +25782,7 @@
         <v>0.0333333333333</v>
       </c>
     </row>
-    <row r="278" ht="31" spans="1:18">
+    <row r="278" ht="16" spans="1:18">
       <c r="A278" s="2" t="s">
         <v>469</v>
       </c>
@@ -25950,7 +25950,7 @@
         <v>0.0416666666666</v>
       </c>
     </row>
-    <row r="281" ht="31" spans="1:18">
+    <row r="281" ht="16" spans="1:18">
       <c r="A281" s="3" t="s">
         <v>469</v>
       </c>
@@ -35078,7 +35078,7 @@
         <v>0.0526315789473</v>
       </c>
     </row>
-    <row r="444" ht="31" spans="1:18">
+    <row r="444" ht="16" spans="1:18">
       <c r="A444" s="2" t="s">
         <v>918</v>
       </c>
@@ -35638,7 +35638,7 @@
         <v>0.03125</v>
       </c>
     </row>
-    <row r="454" ht="31" spans="1:18">
+    <row r="454" ht="16" spans="1:18">
       <c r="A454" s="2" t="s">
         <v>918</v>
       </c>
@@ -35806,7 +35806,7 @@
         <v>0.1666666666666</v>
       </c>
     </row>
-    <row r="457" ht="31" spans="1:18">
+    <row r="457" ht="16" spans="1:18">
       <c r="A457" s="3" t="s">
         <v>918</v>
       </c>
@@ -35862,7 +35862,7 @@
         <v>0.0204081632653</v>
       </c>
     </row>
-    <row r="458" ht="31" spans="1:18">
+    <row r="458" ht="16" spans="1:18">
       <c r="A458" s="2" t="s">
         <v>918</v>
       </c>
@@ -36086,7 +36086,7 @@
         <v>0.1739130434782</v>
       </c>
     </row>
-    <row r="462" ht="31" spans="1:18">
+    <row r="462" ht="16" spans="1:18">
       <c r="A462" s="2" t="s">
         <v>918</v>
       </c>
@@ -36534,7 +36534,7 @@
         <v>0.051282051282</v>
       </c>
     </row>
-    <row r="470" ht="31" spans="1:18">
+    <row r="470" ht="16" spans="1:18">
       <c r="A470" s="2" t="s">
         <v>918</v>
       </c>
@@ -36590,7 +36590,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="471" ht="31" spans="1:18">
+    <row r="471" ht="16" spans="1:18">
       <c r="A471" s="3" t="s">
         <v>918</v>
       </c>
@@ -37262,7 +37262,7 @@
         <v>0.0135135135135</v>
       </c>
     </row>
-    <row r="483" ht="31" spans="1:18">
+    <row r="483" ht="16" spans="1:18">
       <c r="A483" s="3" t="s">
         <v>918</v>
       </c>
@@ -37430,7 +37430,7 @@
         <v>0.1463414634146</v>
       </c>
     </row>
-    <row r="486" ht="31" spans="1:18">
+    <row r="486" ht="16" spans="1:18">
       <c r="A486" s="2" t="s">
         <v>918</v>
       </c>
@@ -37486,7 +37486,7 @@
         <v>0.0526315789473</v>
       </c>
     </row>
-    <row r="487" ht="31" spans="1:18">
+    <row r="487" ht="16" spans="1:18">
       <c r="A487" s="3" t="s">
         <v>918</v>
       </c>
@@ -37822,7 +37822,7 @@
         <v>0.0434782608695</v>
       </c>
     </row>
-    <row r="493" ht="31" spans="1:18">
+    <row r="493" ht="16" spans="1:18">
       <c r="A493" s="3" t="s">
         <v>918</v>
       </c>
@@ -38046,7 +38046,7 @@
         <v>0.0588235294117</v>
       </c>
     </row>
-    <row r="497" ht="31" spans="1:18">
+    <row r="497" ht="16" spans="1:18">
       <c r="A497" s="3" t="s">
         <v>918</v>
       </c>
@@ -38214,7 +38214,7 @@
         <v>0.1666666666666</v>
       </c>
     </row>
-    <row r="500" ht="31" spans="1:18">
+    <row r="500" ht="16" spans="1:18">
       <c r="A500" s="2" t="s">
         <v>918</v>
       </c>
@@ -39502,7 +39502,7 @@
         <v>0.0816326530612</v>
       </c>
     </row>
-    <row r="523" ht="31" spans="1:18">
+    <row r="523" ht="16" spans="1:18">
       <c r="A523" s="3" t="s">
         <v>918</v>
       </c>
@@ -39558,7 +39558,7 @@
         <v>0.025</v>
       </c>
     </row>
-    <row r="524" ht="31" spans="1:18">
+    <row r="524" ht="16" spans="1:18">
       <c r="A524" s="2" t="s">
         <v>918</v>
       </c>
@@ -39782,7 +39782,7 @@
         <v>0.0465116279069</v>
       </c>
     </row>
-    <row r="528" ht="31" spans="1:18">
+    <row r="528" ht="16" spans="1:18">
       <c r="A528" s="2" t="s">
         <v>918</v>
       </c>
@@ -39838,7 +39838,7 @@
         <v>0.0961538461538</v>
       </c>
     </row>
-    <row r="529" ht="31" spans="1:18">
+    <row r="529" ht="16" spans="1:18">
       <c r="A529" s="3" t="s">
         <v>918</v>
       </c>
@@ -40062,7 +40062,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="533" ht="31" spans="1:18">
+    <row r="533" ht="16" spans="1:18">
       <c r="A533" s="3" t="s">
         <v>918</v>
       </c>
@@ -40230,7 +40230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" ht="31" spans="1:18">
+    <row r="536" ht="16" spans="1:18">
       <c r="A536" s="2" t="s">
         <v>918</v>
       </c>
@@ -40902,7 +40902,7 @@
         <v>0.1388888888888</v>
       </c>
     </row>
-    <row r="548" ht="31" spans="1:18">
+    <row r="548" ht="16" spans="1:18">
       <c r="A548" s="2" t="s">
         <v>918</v>
       </c>
@@ -41014,7 +41014,7 @@
         <v>0.0526315789473</v>
       </c>
     </row>
-    <row r="550" ht="31" spans="1:18">
+    <row r="550" ht="16" spans="1:18">
       <c r="A550" s="2" t="s">
         <v>918</v>
       </c>
@@ -41294,7 +41294,7 @@
         <v>0.0566037735849</v>
       </c>
     </row>
-    <row r="555" ht="31" spans="1:18">
+    <row r="555" ht="16" spans="1:18">
       <c r="A555" s="3" t="s">
         <v>918</v>
       </c>
@@ -41350,7 +41350,7 @@
         <v>0.090909090909</v>
       </c>
     </row>
-    <row r="556" ht="31" spans="1:18">
+    <row r="556" ht="16" spans="1:18">
       <c r="A556" s="2" t="s">
         <v>918</v>
       </c>
@@ -41574,7 +41574,7 @@
         <v>0.0465116279069</v>
       </c>
     </row>
-    <row r="560" ht="31" spans="1:18">
+    <row r="560" ht="16" spans="1:18">
       <c r="A560" s="2" t="s">
         <v>918</v>
       </c>
@@ -41630,7 +41630,7 @@
         <v>0.0444444444444</v>
       </c>
     </row>
-    <row r="561" ht="31" spans="1:18">
+    <row r="561" ht="16" spans="1:18">
       <c r="A561" s="3" t="s">
         <v>918</v>
       </c>
@@ -41798,7 +41798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" ht="31" spans="1:18">
+    <row r="564" ht="16" spans="1:18">
       <c r="A564" s="2" t="s">
         <v>918</v>
       </c>
@@ -43254,7 +43254,7 @@
         <v>0.0754716981132</v>
       </c>
     </row>
-    <row r="590" ht="31" spans="1:18">
+    <row r="590" ht="16" spans="1:18">
       <c r="A590" s="2" t="s">
         <v>1222</v>
       </c>
@@ -43646,7 +43646,7 @@
         <v>0.051282051282</v>
       </c>
     </row>
-    <row r="597" ht="31" spans="1:18">
+    <row r="597" ht="16" spans="1:18">
       <c r="A597" s="3" t="s">
         <v>1222</v>
       </c>
@@ -43702,7 +43702,7 @@
         <v>0.038961038961</v>
       </c>
     </row>
-    <row r="598" ht="31" spans="1:18">
+    <row r="598" ht="16" spans="1:18">
       <c r="A598" s="2" t="s">
         <v>1222</v>
       </c>
@@ -47622,7 +47622,7 @@
         <v>0.0285714285714</v>
       </c>
     </row>
-    <row r="668" ht="31" spans="1:18">
+    <row r="668" ht="16" spans="1:18">
       <c r="A668" s="2" t="s">
         <v>1222</v>
       </c>
@@ -47734,7 +47734,7 @@
         <v>0.081081081081</v>
       </c>
     </row>
-    <row r="670" ht="31" spans="1:18">
+    <row r="670" ht="16" spans="1:18">
       <c r="A670" s="2" t="s">
         <v>1222</v>
       </c>
@@ -48294,7 +48294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" ht="31" spans="1:18">
+    <row r="680" ht="16" spans="1:18">
       <c r="A680" s="2" t="s">
         <v>1222</v>
       </c>
@@ -48574,7 +48574,7 @@
         <v>0.0857142857142</v>
       </c>
     </row>
-    <row r="685" ht="31" spans="1:18">
+    <row r="685" ht="16" spans="1:18">
       <c r="A685" s="3" t="s">
         <v>1222</v>
       </c>
@@ -48630,7 +48630,7 @@
         <v>0.0666666666666</v>
       </c>
     </row>
-    <row r="686" ht="31" spans="1:18">
+    <row r="686" ht="16" spans="1:18">
       <c r="A686" s="2" t="s">
         <v>1222</v>
       </c>
@@ -48854,7 +48854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" ht="31" spans="1:18">
+    <row r="690" ht="16" spans="1:18">
       <c r="A690" s="2" t="s">
         <v>1222</v>
       </c>
@@ -48966,7 +48966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" ht="31" spans="1:18">
+    <row r="692" ht="16" spans="1:18">
       <c r="A692" s="2" t="s">
         <v>1222</v>
       </c>
@@ -49022,7 +49022,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="693" ht="31" spans="1:18">
+    <row r="693" ht="16" spans="1:18">
       <c r="A693" s="3" t="s">
         <v>1222</v>
       </c>
@@ -49302,7 +49302,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="698" ht="31" spans="1:18">
+    <row r="698" ht="16" spans="1:18">
       <c r="A698" s="2" t="s">
         <v>1222</v>
       </c>
@@ -51430,7 +51430,7 @@
         <v>0.0731707317073</v>
       </c>
     </row>
-    <row r="736" ht="31" spans="1:18">
+    <row r="736" ht="16" spans="1:18">
       <c r="A736" s="2" t="s">
         <v>1222</v>
       </c>
@@ -51822,7 +51822,7 @@
         <v>0.095238095238</v>
       </c>
     </row>
-    <row r="743" ht="31" spans="1:18">
+    <row r="743" ht="16" spans="1:18">
       <c r="A743" s="3" t="s">
         <v>1222</v>
       </c>
@@ -51990,7 +51990,7 @@
         <v>0.095238095238</v>
       </c>
     </row>
-    <row r="746" ht="31" spans="1:18">
+    <row r="746" ht="16" spans="1:18">
       <c r="A746" s="2" t="s">
         <v>1222</v>
       </c>
@@ -52158,7 +52158,7 @@
         <v>0.1090909090909</v>
       </c>
     </row>
-    <row r="749" ht="31" spans="1:18">
+    <row r="749" ht="16" spans="1:18">
       <c r="A749" s="3" t="s">
         <v>1222</v>
       </c>
@@ -52830,7 +52830,7 @@
         <v>0.0833333333333</v>
       </c>
     </row>
-    <row r="761" ht="31" spans="1:18">
+    <row r="761" ht="16" spans="1:18">
       <c r="A761" s="3" t="s">
         <v>1222</v>
       </c>
@@ -53390,7 +53390,7 @@
         <v>0.0322580645161</v>
       </c>
     </row>
-    <row r="771" ht="31" spans="1:18">
+    <row r="771" ht="16" spans="1:18">
       <c r="A771" s="3" t="s">
         <v>1222</v>
       </c>
@@ -53558,7 +53558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="774" ht="31" spans="1:18">
+    <row r="774" ht="16" spans="1:18">
       <c r="A774" s="2" t="s">
         <v>1222</v>
       </c>
@@ -53894,7 +53894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="780" ht="31" spans="1:18">
+    <row r="780" ht="16" spans="1:18">
       <c r="A780" s="2" t="s">
         <v>1222</v>
       </c>
@@ -53950,7 +53950,7 @@
         <v>0.0163934426229</v>
       </c>
     </row>
-    <row r="781" ht="31" spans="1:18">
+    <row r="781" ht="16" spans="1:18">
       <c r="A781" s="3" t="s">
         <v>1222</v>
       </c>
@@ -54846,7 +54846,7 @@
         <v>0.0681818181818</v>
       </c>
     </row>
-    <row r="797" ht="31" spans="1:18">
+    <row r="797" ht="16" spans="1:18">
       <c r="A797" s="3" t="s">
         <v>1222</v>
       </c>
@@ -59942,7 +59942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="888" ht="31" spans="1:18">
+    <row r="888" ht="16" spans="1:18">
       <c r="A888" s="2" t="s">
         <v>1714</v>
       </c>
@@ -60110,7 +60110,7 @@
         <v>0.0833333333333</v>
       </c>
     </row>
-    <row r="891" ht="31" spans="1:18">
+    <row r="891" ht="16" spans="1:18">
       <c r="A891" s="3" t="s">
         <v>1714</v>
       </c>
@@ -60950,7 +60950,7 @@
         <v>0.1052631578947</v>
       </c>
     </row>
-    <row r="906" ht="31" spans="1:18">
+    <row r="906" ht="16" spans="1:18">
       <c r="A906" s="2" t="s">
         <v>1714</v>
       </c>
@@ -61286,7 +61286,7 @@
         <v>0.030303030303</v>
       </c>
     </row>
-    <row r="912" ht="31" spans="1:18">
+    <row r="912" ht="16" spans="1:18">
       <c r="A912" s="2" t="s">
         <v>1714</v>
       </c>
@@ -61398,7 +61398,7 @@
         <v>0.0714285714285</v>
       </c>
     </row>
-    <row r="914" ht="31" spans="1:18">
+    <row r="914" ht="16" spans="1:18">
       <c r="A914" s="2" t="s">
         <v>1714</v>
       </c>
@@ -61622,7 +61622,7 @@
         <v>0.1176470588235</v>
       </c>
     </row>
-    <row r="918" ht="31" spans="1:18">
+    <row r="918" ht="16" spans="1:18">
       <c r="A918" s="2" t="s">
         <v>1714</v>
       </c>
@@ -62630,7 +62630,7 @@
         <v>0.0487804878048</v>
       </c>
     </row>
-    <row r="936" ht="31" spans="1:18">
+    <row r="936" ht="16" spans="1:18">
       <c r="A936" s="2" t="s">
         <v>1714</v>
       </c>
@@ -62742,7 +62742,7 @@
         <v>0.0875</v>
       </c>
     </row>
-    <row r="938" ht="31" spans="1:18">
+    <row r="938" ht="16" spans="1:18">
       <c r="A938" s="2" t="s">
         <v>1714</v>
       </c>
@@ -63134,7 +63134,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="945" ht="31" spans="1:18">
+    <row r="945" ht="16" spans="1:18">
       <c r="A945" s="3" t="s">
         <v>1714</v>
       </c>
@@ -72150,7 +72150,7 @@
         <v>0.1304347826086</v>
       </c>
     </row>
-    <row r="1106" ht="31" spans="1:18">
+    <row r="1106" ht="16" spans="1:18">
       <c r="A1106" s="2" t="s">
         <v>1714</v>
       </c>
@@ -72206,7 +72206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1107" ht="31" spans="1:18">
+    <row r="1107" ht="16" spans="1:18">
       <c r="A1107" s="3" t="s">
         <v>1714</v>
       </c>
@@ -72486,7 +72486,7 @@
         <v>0.0294117647058</v>
       </c>
     </row>
-    <row r="1112" ht="31" spans="1:18">
+    <row r="1112" ht="16" spans="1:18">
       <c r="A1112" s="2" t="s">
         <v>1714</v>
       </c>
@@ -72990,7 +72990,7 @@
         <v>0.170731707317</v>
       </c>
     </row>
-    <row r="1121" ht="31" spans="1:18">
+    <row r="1121" ht="16" spans="1:18">
       <c r="A1121" s="3" t="s">
         <v>2296</v>
       </c>
@@ -73382,7 +73382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1128" ht="31" spans="1:18">
+    <row r="1128" ht="16" spans="1:18">
       <c r="A1128" s="2" t="s">
         <v>2296</v>
       </c>
@@ -73718,7 +73718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1134" ht="31" spans="1:18">
+    <row r="1134" ht="16" spans="1:18">
       <c r="A1134" s="2" t="s">
         <v>2296</v>
       </c>
@@ -78030,7 +78030,7 @@
         <v>0.0357142857142</v>
       </c>
     </row>
-    <row r="1211" ht="31" spans="1:18">
+    <row r="1211" ht="16" spans="1:18">
       <c r="A1211" s="3" t="s">
         <v>2296</v>
       </c>
@@ -82566,7 +82566,7 @@
         <v>0.0975609756097</v>
       </c>
     </row>
-    <row r="1292" ht="31" spans="1:18">
+    <row r="1292" ht="16" spans="1:18">
       <c r="A1292" s="2" t="s">
         <v>2632</v>
       </c>
@@ -82734,7 +82734,7 @@
         <v>0.0722891566265</v>
       </c>
     </row>
-    <row r="1295" ht="31" spans="1:18">
+    <row r="1295" ht="16" spans="1:18">
       <c r="A1295" s="3" t="s">
         <v>2632</v>
       </c>
@@ -83014,7 +83014,7 @@
         <v>0.1136363636363</v>
       </c>
     </row>
-    <row r="1300" ht="31" spans="1:18">
+    <row r="1300" ht="16" spans="1:18">
       <c r="A1300" s="2" t="s">
         <v>2632</v>
       </c>
@@ -83742,7 +83742,7 @@
         <v>0.0588235294117</v>
       </c>
     </row>
-    <row r="1313" ht="31" spans="1:18">
+    <row r="1313" ht="16" spans="1:18">
       <c r="A1313" s="3" t="s">
         <v>2632</v>
       </c>
@@ -83910,7 +83910,7 @@
         <v>0.0681818181818</v>
       </c>
     </row>
-    <row r="1316" ht="31" spans="1:18">
+    <row r="1316" ht="16" spans="1:18">
       <c r="A1316" s="2" t="s">
         <v>2632</v>
       </c>
@@ -84078,7 +84078,7 @@
         <v>0.046875</v>
       </c>
     </row>
-    <row r="1319" ht="31" spans="1:18">
+    <row r="1319" ht="16" spans="1:18">
       <c r="A1319" s="3" t="s">
         <v>2632</v>
       </c>
@@ -84190,7 +84190,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="1321" ht="31" spans="1:18">
+    <row r="1321" ht="16" spans="1:18">
       <c r="A1321" s="3" t="s">
         <v>2632</v>
       </c>
@@ -84582,7 +84582,7 @@
         <v>0.0465116279069</v>
       </c>
     </row>
-    <row r="1328" ht="31" spans="1:18">
+    <row r="1328" ht="16" spans="1:18">
       <c r="A1328" s="2" t="s">
         <v>2632</v>
       </c>
@@ -86766,7 +86766,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="1367" ht="31" spans="1:18">
+    <row r="1367" ht="16" spans="1:18">
       <c r="A1367" s="3" t="s">
         <v>2819</v>
       </c>
@@ -87158,7 +87158,7 @@
         <v>0.0487804878048</v>
       </c>
     </row>
-    <row r="1374" ht="31" spans="1:18">
+    <row r="1374" ht="16" spans="1:18">
       <c r="A1374" s="2" t="s">
         <v>2819</v>
       </c>
@@ -89342,7 +89342,7 @@
         <v>0.0571428571428</v>
       </c>
     </row>
-    <row r="1413" ht="31" spans="1:18">
+    <row r="1413" ht="16" spans="1:18">
       <c r="A1413" s="3" t="s">
         <v>2819</v>
       </c>
@@ -89454,7 +89454,7 @@
         <v>0.1111111111111</v>
       </c>
     </row>
-    <row r="1415" ht="31" spans="1:18">
+    <row r="1415" ht="16" spans="1:18">
       <c r="A1415" s="3" t="s">
         <v>2819</v>
       </c>
@@ -89510,7 +89510,7 @@
         <v>0.1854838709677</v>
       </c>
     </row>
-    <row r="1416" ht="31" spans="1:18">
+    <row r="1416" ht="16" spans="1:18">
       <c r="A1416" s="2" t="s">
         <v>2819</v>
       </c>
@@ -89622,7 +89622,7 @@
         <v>0.0581395348837</v>
       </c>
     </row>
-    <row r="1418" ht="31" spans="1:18">
+    <row r="1418" ht="16" spans="1:18">
       <c r="A1418" s="2" t="s">
         <v>2819</v>
       </c>
@@ -89902,7 +89902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1423" ht="31" spans="1:18">
+    <row r="1423" ht="16" spans="1:18">
       <c r="A1423" s="3" t="s">
         <v>2819</v>
       </c>
@@ -90014,7 +90014,7 @@
         <v>0.0869565217391</v>
       </c>
     </row>
-    <row r="1425" ht="31" spans="1:18">
+    <row r="1425" ht="16" spans="1:18">
       <c r="A1425" s="3" t="s">
         <v>2819</v>
       </c>
@@ -91078,7 +91078,7 @@
         <v>0.0833333333333</v>
       </c>
     </row>
-    <row r="1444" ht="31" spans="1:18">
+    <row r="1444" ht="16" spans="1:18">
       <c r="A1444" s="2" t="s">
         <v>2819</v>
       </c>
@@ -91134,7 +91134,7 @@
         <v>0.0625</v>
       </c>
     </row>
-    <row r="1445" ht="31" spans="1:18">
+    <row r="1445" ht="16" spans="1:18">
       <c r="A1445" s="3" t="s">
         <v>2819</v>
       </c>
@@ -91246,7 +91246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1447" ht="31" spans="1:18">
+    <row r="1447" ht="16" spans="1:18">
       <c r="A1447" s="3" t="s">
         <v>2819</v>
       </c>
@@ -91302,7 +91302,7 @@
         <v>0.1851851851851</v>
       </c>
     </row>
-    <row r="1448" ht="31" spans="1:18">
+    <row r="1448" ht="16" spans="1:18">
       <c r="A1448" s="2" t="s">
         <v>2819</v>
       </c>
@@ -91414,7 +91414,7 @@
         <v>0.1794871794871</v>
       </c>
     </row>
-    <row r="1450" ht="31" spans="1:18">
+    <row r="1450" ht="16" spans="1:18">
       <c r="A1450" s="2" t="s">
         <v>2819</v>
       </c>
@@ -92086,7 +92086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1462" ht="31" spans="1:18">
+    <row r="1462" ht="16" spans="1:18">
       <c r="A1462" s="2" t="s">
         <v>2819</v>
       </c>
